--- a/excels/excel-3.xlsx
+++ b/excels/excel-3.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnaumas/lab-electro/Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriamarin/Documents/Uni/2n/LaboratoriElectromagnetisme/Elecgit/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD3AC91-3820-6547-9F2F-56DD21435947}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2700 Ω" sheetId="1" r:id="rId1"/>
-    <sheet name="270 Ω (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="270 Ω" sheetId="6" r:id="rId2"/>
     <sheet name="Transitori" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>L (H)</t>
   </si>
@@ -92,12 +93,42 @@
   </si>
   <si>
     <t>ω (rad/s)</t>
+  </si>
+  <si>
+    <t>Càlcul ω_0</t>
+  </si>
+  <si>
+    <t>ω_0 (rad/s)</t>
+  </si>
+  <si>
+    <t>Càlcul ω_1</t>
+  </si>
+  <si>
+    <t>ω_1 (rad/s)</t>
+  </si>
+  <si>
+    <t>Càlcul ω_2</t>
+  </si>
+  <si>
+    <t>ω_2 (rad/s)</t>
+  </si>
+  <si>
+    <t>(Hi ha molt de soroll)</t>
+  </si>
+  <si>
+    <t>Càlcul R_C</t>
+  </si>
+  <si>
+    <t>R_C (Ω)</t>
+  </si>
+  <si>
+    <t>Mesura R_C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -199,6 +230,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -466,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,6 +557,10 @@
       <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="L2">
+        <f>4/4.08</f>
+        <v>0.98039215686274506</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -531,54 +569,111 @@
       <c r="B3">
         <v>2700</v>
       </c>
+      <c r="D3">
+        <v>8800</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>23500</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>3300</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D7">
-        <f>SQRT(1/(B1*B2))/(2*PI())</f>
+        <f>SQRT(1/(B1*B2))</f>
+        <v>55048.188256318033</v>
+      </c>
+      <c r="E7">
+        <f>D7/(2*PI())</f>
         <v>8761.1912692462374</v>
       </c>
       <c r="G7">
-        <f>SQRT((B3/B1)^2 + 4*D7^2)/(2*PI())</f>
-        <v>19730.731299333478</v>
-      </c>
-      <c r="I7">
-        <f>G7 - B3/(2*PI()*B1)</f>
-        <v>198.07919260086419</v>
-      </c>
+        <f xml:space="preserve"> SQRT((B3/B1)^2 + 4*D7^2)/2 + B3/(2*B1)</f>
+        <v>143800.27201837196</v>
+      </c>
+      <c r="H7">
+        <f>G7/(2*PI())</f>
+        <v>22886.524109683061</v>
+      </c>
+      <c r="J7">
+        <f xml:space="preserve"> G7 - B3/B1</f>
+        <v>21072.99929109923</v>
+      </c>
+      <c r="K7">
+        <f xml:space="preserve"> J7/(2*PI())</f>
+        <v>3353.8720029504489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10982289-16A4-1048-842E-F7438EEA0E34}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,6 +726,10 @@
       <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="L2">
+        <f>2.88/3.6</f>
+        <v>0.79999999999999993</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -639,54 +738,106 @@
       <c r="B3">
         <v>270</v>
       </c>
+      <c r="D3">
+        <v>8500</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>9100</v>
+      </c>
+      <c r="I3">
+        <v>7820</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D7">
-        <f>SQRT(1/(B1*B2))/(2*PI())</f>
+        <f>SQRT(1/(B1*B2))</f>
+        <v>55048.188256318033</v>
+      </c>
+      <c r="E7">
+        <f>D7/(2*PI())</f>
         <v>8761.1912692462374</v>
       </c>
       <c r="G7">
-        <f>SQRT((B3/B1)^2 + 4*D7^2)/(2*PI())</f>
-        <v>3404.7766838778471</v>
-      </c>
-      <c r="I7">
-        <f>G7 - B3/(2*PI()*B1)</f>
-        <v>1451.5114732045859</v>
+        <f xml:space="preserve"> SQRT((B3/B1)^2 + 4*D7^2)/2 + B3/(2*B1)</f>
+        <v>61525.514099073538</v>
+      </c>
+      <c r="H7">
+        <f>G7/(2*PI())</f>
+        <v>9792.0896951376526</v>
+      </c>
+      <c r="J7">
+        <f xml:space="preserve"> G7 - B3/B1</f>
+        <v>49252.786826346266</v>
+      </c>
+      <c r="K7">
+        <f xml:space="preserve"> J7/(2*PI())</f>
+        <v>7838.8244844643923</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <f>3.6/SQRT(2)</f>
+        <v>2.545584412271571</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,7 +846,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -706,8 +857,11 @@
         <v>16</v>
       </c>
       <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -720,30 +874,51 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f>1/(10*4322)</f>
+        <v>2.3137436372049977E-5</v>
+      </c>
+      <c r="E3">
+        <f>0.000001</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G3" s="1">
+        <f>12840</f>
+        <v>12840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7">
         <f xml:space="preserve"> SQRT(4/(B1*B2) - (B3/B1)^2)/2</f>
         <v>303018.03005449753</v>
@@ -751,6 +926,16 @@
       <c r="E7">
         <f>2*PI()/D7</f>
         <v>2.0735351312427056E-5</v>
+      </c>
+      <c r="G7" s="1">
+        <f>SQRT(B1/B2)*2</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f>1/(10*E7)</f>
+        <v>4822.6817329141777</v>
       </c>
     </row>
   </sheetData>

--- a/excels/excel-3.xlsx
+++ b/excels/excel-3.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriamarin/Documents/Uni/2n/LaboratoriElectromagnetisme/Elecgit/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnaumas/lab-electro/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD3AC91-3820-6547-9F2F-56DD21435947}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="1540" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2700 Ω" sheetId="1" r:id="rId1"/>
     <sheet name="270 Ω" sheetId="6" r:id="rId2"/>
     <sheet name="Transitori" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -128,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -500,10 +499,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -669,7 +668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10982289-16A4-1048-842E-F7438EEA0E34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -833,11 +832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,12 +931,6 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <f>1/(10*E7)</f>
-        <v>4822.6817329141777</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:E1"/>

--- a/excels/excel-3.xlsx
+++ b/excels/excel-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1540" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2700 Ω" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
